--- a/PRODUTOS/Saudaveis/Saudaveis - Organicos.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Organicos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chia Em Graos Oranica Vitalin 120gr</t>
+          <t>Chocolate Em Pó Qualicoco Sachê 200g 50% Cacau</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/074ef3e7-93fb-4e1c-a2ef-78bdb55758c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/760ace76-30cc-4632-b1c7-e41ea716dc0b.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896552906234</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Proteína Soja Sora Granulada Escura 400g</t>
+          <t>Salg Zooreta Mae Terra Org 45g Queijo</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0335f0bb-1d4c-4ced-ba43-fdd4f0ad05c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc06e1bb-9c71-4857-9753-58970d57154e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891150094857</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chocolate Em Pó Qualicoco Sachê 200g 50% Cacau</t>
+          <t>Salg Zooreta Mae Terra Org 45g Pizza</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/760ace76-30cc-4632-b1c7-e41ea716dc0b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ab2fbcf-ed79-46a1-8437-62d6367315b4.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896496972326</t>
         </is>
       </c>
     </row>
@@ -542,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Salg Zooreta Mae Terra Org 45g Pizza</t>
+          <t>Salgadinho Zooreta Mae Terra Organico 45g Cebola</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ab2fbcf-ed79-46a1-8437-62d6367315b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf865fe3-110a-4a06-ba81-c0c6b62a442e.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896496972340</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fibras Organica Native 300g</t>
+          <t>Remix Mae Terra 25g Acai</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3dca2e9-ccf4-44da-95a4-f423576f8fd6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/105440cc-8159-4fb5-aa7e-979751c1d824.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896496972555</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Biscoito Tribos Integral Mae Terra 130g Cacau</t>
+          <t>Biscoito Zooreta Orgânico Mae Terra 110g Morango</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/518b2437-6366-4c99-848b-7743da2c9909.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/312194c6-44f7-414f-9770-9b451b4e5966.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896496917853</t>
         </is>
       </c>
     </row>
@@ -636,6 +671,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91cb4790-2217-40ed-bc7a-b67b842bf50a.jpg</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896496917846</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -650,7 +690,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Biscoito Zooreta Orgânico Mae Terra 110g Morango</t>
+          <t>Biscoito Tribos Integral Mae Terra 130g Coco</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -660,7 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/312194c6-44f7-414f-9770-9b451b4e5966.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0a74285-7cf1-418b-a3cc-2178497c39c4.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896496917716</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Salgadinho Zooreta Mae Terra Organico 45g Cebola</t>
+          <t>Biscoito Tribos Integral Mae Terra 130g Cacau</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf865fe3-110a-4a06-ba81-c0c6b62a442e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/518b2437-6366-4c99-848b-7743da2c9909.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896496917709</t>
         </is>
       </c>
     </row>
@@ -717,6 +767,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc916cb0-4d04-4af9-97c5-60aa652f442e.jpg</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896496917525</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -731,98 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Biscoito Tribos Integral Mae Terra 130g Coco</t>
+          <t>Chia Em Graos Oranica Vitalin 120gr</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0a74285-7cf1-418b-a3cc-2178497c39c4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Organicos</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Salg Zooreta Mae Terra Org 45g Queijo</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc06e1bb-9c71-4857-9753-58970d57154e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Organicos</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Requeijao Vegano Qualicoco 200g Tradicional</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/321b9ef0-963c-420a-a9d7-c304fc405076.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Organicos</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Remix Mae Terra 25g Acai</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/105440cc-8159-4fb5-aa7e-979751c1d824.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/074ef3e7-93fb-4e1c-a2ef-78bdb55758c4.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7898568901036</t>
         </is>
       </c>
     </row>
